--- a/CPU-显卡/鲁大师显卡.xlsx
+++ b/CPU-显卡/鲁大师显卡.xlsx
@@ -1529,7 +1529,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1569,7 +1569,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1589,15 +1589,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D501" totalsRowShown="0">
-  <autoFilter ref="A1:D501">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A150:D341">
-    <sortCondition descending="1" ref="D1:D501"/>
+  <autoFilter ref="A1:D501"/>
+  <sortState ref="A2:D501">
+    <sortCondition ref="C1:C501"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="名称"/>
@@ -1936,7 +1930,7 @@
   <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1962,1923 +1956,2019 @@
       </c>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2">
+        <v>35001</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>583.35</v>
+      </c>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3">
+        <v>34933</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>582.2166666666667</v>
+      </c>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4">
+        <v>34376</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>572.93333333333328</v>
+      </c>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5">
+        <v>72886</v>
+      </c>
+      <c r="C5">
+        <v>145</v>
+      </c>
+      <c r="D5" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>502.66206896551722</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6">
+        <v>72678</v>
+      </c>
+      <c r="C6">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>501.22758620689655</v>
+      </c>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7">
+        <v>71775</v>
+      </c>
+      <c r="C7">
+        <v>145</v>
+      </c>
+      <c r="D7" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>495</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8">
+        <v>74288</v>
+      </c>
+      <c r="C8">
+        <v>168</v>
+      </c>
+      <c r="D8" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>442.1904761904762</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9">
+        <v>101274</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>506.37</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10">
+        <v>93542</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>467.71</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>160077</v>
+      </c>
+      <c r="C11">
+        <v>228</v>
+      </c>
+      <c r="D11" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>702.09210526315792</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12">
+        <v>153040</v>
+      </c>
+      <c r="C12">
+        <v>228</v>
+      </c>
+      <c r="D12" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>671.22807017543857</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13">
+        <v>112457</v>
+      </c>
+      <c r="C13">
+        <v>230</v>
+      </c>
+      <c r="D13" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>488.94347826086954</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14">
+        <v>112239</v>
+      </c>
+      <c r="C14">
+        <v>230</v>
+      </c>
+      <c r="D14" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>487.99565217391302</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15">
+        <v>170013</v>
+      </c>
+      <c r="C15">
+        <v>260</v>
+      </c>
+      <c r="D15" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>653.89615384615388</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16">
+        <v>169792</v>
+      </c>
+      <c r="C16">
+        <v>260</v>
+      </c>
+      <c r="D16" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>653.04615384615386</v>
+      </c>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17">
+        <v>110888</v>
+      </c>
+      <c r="C17">
+        <v>271</v>
+      </c>
+      <c r="D17" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>409.18081180811811</v>
+      </c>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18">
+        <v>105541</v>
+      </c>
+      <c r="C18">
+        <v>271</v>
+      </c>
+      <c r="D18" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>389.450184501845</v>
+      </c>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19">
+        <v>95123</v>
+      </c>
+      <c r="C19">
+        <v>271</v>
+      </c>
+      <c r="D19" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>351.00738007380073</v>
+      </c>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20">
+        <v>203032</v>
+      </c>
+      <c r="C20">
+        <v>460</v>
+      </c>
+      <c r="D20" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>441.37391304347824</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21">
+        <v>189137</v>
+      </c>
+      <c r="C21">
+        <v>460</v>
+      </c>
+      <c r="D21" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>411.1673913043478</v>
+      </c>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22">
+        <v>185790</v>
+      </c>
+      <c r="C22">
+        <v>460</v>
+      </c>
+      <c r="D22" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>403.89130434782606</v>
+      </c>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23">
+        <v>185785</v>
+      </c>
+      <c r="C23">
+        <v>460</v>
+      </c>
+      <c r="D23" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>403.88043478260869</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24">
+        <v>184761</v>
+      </c>
+      <c r="C24">
+        <v>460</v>
+      </c>
+      <c r="D24" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>401.65434782608696</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25">
+        <v>182710</v>
+      </c>
+      <c r="C25">
+        <v>460</v>
+      </c>
+      <c r="D25" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>397.19565217391306</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26">
+        <v>178523</v>
+      </c>
+      <c r="C26">
+        <v>460</v>
+      </c>
+      <c r="D26" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>388.09347826086957</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>174542</v>
+      </c>
+      <c r="C27">
+        <v>460</v>
+      </c>
+      <c r="D27" s="1">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>379.43913043478261</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B28">
         <v>1455383</v>
       </c>
-      <c r="D2" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="D28" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B29">
         <v>1334658</v>
       </c>
-      <c r="D3" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D29" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B30">
         <v>1238906</v>
       </c>
-      <c r="D4" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D30" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B31">
         <v>1026199</v>
       </c>
-      <c r="D5" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="D31" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B32">
         <v>1010127</v>
       </c>
-      <c r="D6" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="D32" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B33">
         <v>1006838</v>
       </c>
-      <c r="D7" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="D33" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B34">
         <v>944779</v>
       </c>
-      <c r="D8" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="D34" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B35">
         <v>865988</v>
       </c>
-      <c r="D9" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="D35" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B36">
         <v>845283</v>
       </c>
-      <c r="D10" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="D36" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B37">
         <v>842177</v>
       </c>
-      <c r="D11" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="D37" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B38">
         <v>840834</v>
       </c>
-      <c r="D12" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="D38" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B39">
         <v>824754</v>
       </c>
-      <c r="D13" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="D39" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B40">
         <v>823379</v>
       </c>
-      <c r="D14" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="D40" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B41">
         <v>783381</v>
       </c>
-      <c r="D15" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="D41" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B42">
         <v>782575</v>
       </c>
-      <c r="D16" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="D42" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B43">
         <v>778707</v>
       </c>
-      <c r="D17" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="D43" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B44">
         <v>764752</v>
       </c>
-      <c r="D18" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="D44" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B45">
         <v>741547</v>
       </c>
-      <c r="D19" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="D45" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B46">
         <v>719300</v>
       </c>
-      <c r="D20" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="D46" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B47">
         <v>652898</v>
       </c>
-      <c r="D21" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="D47" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B48">
         <v>648353</v>
       </c>
-      <c r="D22" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="D48" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B49">
         <v>626297</v>
       </c>
-      <c r="D23" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="D49" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B50">
         <v>622943</v>
       </c>
-      <c r="D24" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="D50" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B51">
         <v>618394</v>
       </c>
-      <c r="D25" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="D51" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B52">
         <v>597371</v>
       </c>
-      <c r="D26" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="D52" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B53">
         <v>586243</v>
       </c>
-      <c r="D27" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="D53" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B54">
         <v>581637</v>
       </c>
-      <c r="D28" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="D54" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B55">
         <v>560515</v>
       </c>
-      <c r="D29" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="D55" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B56">
         <v>530918</v>
       </c>
-      <c r="D30" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="D56" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B57">
         <v>527671</v>
       </c>
-      <c r="D31" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="D57" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B58">
         <v>518086</v>
       </c>
-      <c r="D32" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="D58" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B59">
         <v>505833</v>
       </c>
-      <c r="D33" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="D59" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B60">
         <v>505157</v>
       </c>
-      <c r="D34" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="C60">
+        <v>2500</v>
+      </c>
+      <c r="D60">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>202.06280000000001</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B61">
         <v>500795</v>
       </c>
-      <c r="D35" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="D61" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B62">
         <v>488991</v>
       </c>
-      <c r="D36" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="C62">
+        <v>1800</v>
+      </c>
+      <c r="D62">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>271.66166666666669</v>
+      </c>
+      <c r="E62"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B63">
         <v>477890</v>
       </c>
-      <c r="D37" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="D63" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B64">
         <v>477865</v>
       </c>
-      <c r="D38" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="D64" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B65">
         <v>476942</v>
       </c>
-      <c r="D39" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="D65" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B66">
         <v>460528</v>
       </c>
-      <c r="D40" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="C66">
+        <v>2300</v>
+      </c>
+      <c r="D66">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>200.2295652173913</v>
+      </c>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B67">
         <v>458605</v>
       </c>
-      <c r="D41" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="D67" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B68">
         <v>456933</v>
       </c>
-      <c r="D42" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="D68" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B69">
         <v>453757</v>
       </c>
-      <c r="D43" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+      <c r="D69" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B70">
         <v>448657</v>
       </c>
-      <c r="D44" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+      <c r="D70" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B71">
         <v>441073</v>
       </c>
-      <c r="D45" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="D71" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B72">
         <v>435706</v>
       </c>
-      <c r="D46" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+      <c r="D72" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B73">
         <v>433815</v>
       </c>
-      <c r="D47" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+      <c r="D73" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B74">
         <v>432776</v>
       </c>
-      <c r="D48" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+      <c r="D74" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B75">
         <v>430581</v>
       </c>
-      <c r="D49" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="D75" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B76">
         <v>429610</v>
       </c>
-      <c r="D50" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="D76" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B77">
         <v>418670</v>
       </c>
-      <c r="D51" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="C77">
+        <v>1350</v>
+      </c>
+      <c r="D77">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>310.12592592592591</v>
+      </c>
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B78">
         <v>417589</v>
       </c>
-      <c r="D52" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="D78" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E78"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B79">
         <v>416177</v>
       </c>
-      <c r="D53" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="D79" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E79"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B80">
         <v>415882</v>
       </c>
-      <c r="D54" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="D80" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E80"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B81">
         <v>412228</v>
       </c>
-      <c r="D55" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="D81" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B82">
         <v>408066</v>
       </c>
-      <c r="D56" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="D82" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B83">
         <v>397687</v>
       </c>
-      <c r="D57" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="C83">
+        <v>1350</v>
+      </c>
+      <c r="D83">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>294.58296296296294</v>
+      </c>
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B84">
         <v>389715</v>
       </c>
-      <c r="D58" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+      <c r="D84" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B85">
         <v>388843</v>
       </c>
-      <c r="D59" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+      <c r="C85">
+        <v>2000</v>
+      </c>
+      <c r="D85">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>194.42150000000001</v>
+      </c>
+      <c r="E85"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B86">
         <v>382418</v>
       </c>
-      <c r="D60" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+      <c r="D86" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E86"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B87">
         <v>381930</v>
       </c>
-      <c r="D61" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+      <c r="D87" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B88">
         <v>370005</v>
       </c>
-      <c r="D62" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="D88" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B89">
         <v>369522</v>
       </c>
-      <c r="D63" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E63"/>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+      <c r="D89" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B90">
         <v>366971</v>
       </c>
-      <c r="D64" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E64"/>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="D90" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B91">
         <v>366462</v>
       </c>
-      <c r="D65" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+      <c r="D91" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B92">
         <v>364331</v>
       </c>
-      <c r="D66" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E66"/>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+      <c r="D92" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B93">
         <v>363902</v>
       </c>
-      <c r="D67" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="D93" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B94">
         <v>361034</v>
       </c>
-      <c r="D68" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+      <c r="D94" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B95">
         <v>359937</v>
       </c>
-      <c r="D69" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+      <c r="D95" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B96">
         <v>359611</v>
       </c>
-      <c r="D70" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+      <c r="D96" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B97">
         <v>347550</v>
       </c>
-      <c r="D71" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+      <c r="D97" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B98">
         <v>347484</v>
       </c>
-      <c r="D72" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
+      <c r="D98" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B99">
         <v>345152</v>
       </c>
-      <c r="D73" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+      <c r="D99" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B100">
         <v>339382</v>
       </c>
-      <c r="D74" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+      <c r="D100" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B101">
         <v>332214</v>
       </c>
-      <c r="D75" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+      <c r="D101" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E101"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B102">
         <v>331205</v>
       </c>
-      <c r="D76" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+      <c r="D102" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E102"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B103">
         <v>331005</v>
       </c>
-      <c r="D77" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+      <c r="D103" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E103"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B104">
         <v>329637</v>
       </c>
-      <c r="D78" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
+      <c r="D104" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E104"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B105">
         <v>328635</v>
       </c>
-      <c r="D79" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
+      <c r="D105" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E105"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B106">
         <v>326813</v>
       </c>
-      <c r="D80" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+      <c r="D106" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B107">
         <v>324671</v>
       </c>
-      <c r="D81" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E81"/>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+      <c r="D107" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E107"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B108">
         <v>322989</v>
       </c>
-      <c r="D82" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E82"/>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
+      <c r="D108" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E108"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B109">
         <v>319973</v>
       </c>
-      <c r="D83" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E83"/>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+      <c r="D109" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E109"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B110">
         <v>313476</v>
       </c>
-      <c r="D84" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E84"/>
-    </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
+      <c r="D110" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E110"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B111">
         <v>313038</v>
       </c>
-      <c r="D85" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E85"/>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+      <c r="D111" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E111"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B112">
         <v>310103</v>
       </c>
-      <c r="D86" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E86"/>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
+      <c r="D112" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B113">
         <v>305128</v>
       </c>
-      <c r="D87" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E87"/>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+      <c r="D113" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B114">
         <v>299570</v>
       </c>
-      <c r="D88" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E88"/>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
+      <c r="D114" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E114"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B115">
         <v>298531</v>
       </c>
-      <c r="D89" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E89"/>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
+      <c r="D115" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E115"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B116">
         <v>297302</v>
       </c>
-      <c r="D90" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E90"/>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
+      <c r="D116" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E116"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B117">
         <v>296751</v>
       </c>
-      <c r="D91" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E91"/>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
+      <c r="D117" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E117"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B118">
         <v>292873</v>
       </c>
-      <c r="D92" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+      <c r="D118" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E118"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B119">
         <v>292399</v>
       </c>
-      <c r="D93" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E93"/>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+      <c r="D119" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B120">
         <v>292357</v>
       </c>
-      <c r="D94" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
+      <c r="D120" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B121">
         <v>288932</v>
       </c>
-      <c r="D95" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E95"/>
-    </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
+      <c r="D121" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B122">
         <v>286968</v>
       </c>
-      <c r="D96" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
+      <c r="D122" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B123">
         <v>285828</v>
       </c>
-      <c r="D97" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E97"/>
-    </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
+      <c r="D123" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B124">
         <v>281429</v>
       </c>
-      <c r="D98" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E98"/>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
+      <c r="D124" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E124"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B125">
         <v>277349</v>
       </c>
-      <c r="D99" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E99"/>
-    </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+      <c r="D125" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E125"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B126">
         <v>276237</v>
       </c>
-      <c r="D100" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100"/>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
+      <c r="D126" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B127">
         <v>274628</v>
       </c>
-      <c r="D101" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E101"/>
-    </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
+      <c r="D127" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E127"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B128">
         <v>272288</v>
       </c>
-      <c r="D102" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E102"/>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+      <c r="D128" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B129">
         <v>271267</v>
       </c>
-      <c r="D103" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E103"/>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+      <c r="D129" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B130">
         <v>269755</v>
       </c>
-      <c r="D104" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E104"/>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
+      <c r="D130" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E130"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B131">
         <v>265495</v>
       </c>
-      <c r="D105" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E105"/>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
+      <c r="D131" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E131"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B132">
         <v>265490</v>
       </c>
-      <c r="D106" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106"/>
-    </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
+      <c r="D132" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E132"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B133">
         <v>258540</v>
       </c>
-      <c r="D107" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E107"/>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
+      <c r="D133" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B134">
         <v>249683</v>
       </c>
-      <c r="D108" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E108"/>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
+      <c r="D134" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B135">
         <v>245238</v>
       </c>
-      <c r="D109" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E109"/>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
+      <c r="D135" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B136">
         <v>244290</v>
       </c>
-      <c r="D110" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E110"/>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
+      <c r="D136" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B137">
         <v>237769</v>
       </c>
-      <c r="D111" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E111"/>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
+      <c r="D137" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B138">
         <v>225360</v>
       </c>
-      <c r="D112" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
+      <c r="D138" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B139">
         <v>221737</v>
       </c>
-      <c r="D113" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E113"/>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+      <c r="D139" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B140">
         <v>218513</v>
       </c>
-      <c r="D114" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E114"/>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
+      <c r="D140" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B141">
         <v>218456</v>
       </c>
-      <c r="D115" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E115"/>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
+      <c r="D141" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E141"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B142">
         <v>217351</v>
       </c>
-      <c r="D116" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E116"/>
-    </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
+      <c r="D142" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E142"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B143">
         <v>207277</v>
       </c>
-      <c r="D117" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E117"/>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
+      <c r="D143" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E143"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B144">
         <v>205402</v>
       </c>
-      <c r="D118" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E118"/>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
+      <c r="D144" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
         <v>292</v>
       </c>
-      <c r="B119">
+      <c r="B145">
         <v>55432</v>
       </c>
-      <c r="D119" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E119"/>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
+      <c r="D145" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B146">
         <v>202188</v>
       </c>
-      <c r="D120" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E120"/>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
+      <c r="D146" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B147">
         <v>201154</v>
       </c>
-      <c r="D121" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E121"/>
-    </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
+      <c r="D147" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B148">
         <v>200505</v>
       </c>
-      <c r="D122" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
+      <c r="D148" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B149">
         <v>199906</v>
-      </c>
-      <c r="D123" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>199508</v>
-      </c>
-      <c r="D124" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>197928</v>
-      </c>
-      <c r="D125" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>193388</v>
-      </c>
-      <c r="D126" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E126"/>
-    </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
-        <v>294</v>
-      </c>
-      <c r="B127">
-        <v>54053</v>
-      </c>
-      <c r="D127" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E127"/>
-    </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>187875</v>
-      </c>
-      <c r="D128" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E128"/>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <v>186763</v>
-      </c>
-      <c r="D129" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E129"/>
-    </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>296</v>
-      </c>
-      <c r="B130">
-        <v>53621</v>
-      </c>
-      <c r="D130" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E130"/>
-    </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>298</v>
-      </c>
-      <c r="B131">
-        <v>52717</v>
-      </c>
-      <c r="D131" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E131"/>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>184797</v>
-      </c>
-      <c r="D132" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E132"/>
-    </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
-        <v>300</v>
-      </c>
-      <c r="B133">
-        <v>50194</v>
-      </c>
-      <c r="D133" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E133"/>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134">
-        <v>183893</v>
-      </c>
-      <c r="D134" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135">
-        <v>183155</v>
-      </c>
-      <c r="D135" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136">
-        <v>182845</v>
-      </c>
-      <c r="D136" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>302</v>
-      </c>
-      <c r="B137">
-        <v>47842</v>
-      </c>
-      <c r="D137" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>304</v>
-      </c>
-      <c r="B138">
-        <v>46773</v>
-      </c>
-      <c r="D138" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
-        <v>135</v>
-      </c>
-      <c r="B139">
-        <v>177496</v>
-      </c>
-      <c r="D139" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E139"/>
-    </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140">
-        <v>176309</v>
-      </c>
-      <c r="D140" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E140"/>
-    </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>137</v>
-      </c>
-      <c r="B141">
-        <v>175017</v>
-      </c>
-      <c r="D141" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E141"/>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
-        <v>138</v>
-      </c>
-      <c r="B142">
-        <v>174884</v>
-      </c>
-      <c r="D142" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E142"/>
-    </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
-        <v>306</v>
-      </c>
-      <c r="B143">
-        <v>45527</v>
-      </c>
-      <c r="D143" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E143"/>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>139</v>
-      </c>
-      <c r="B144">
-        <v>173922</v>
-      </c>
-      <c r="D144" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>140</v>
-      </c>
-      <c r="B145">
-        <v>173684</v>
-      </c>
-      <c r="D145" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E145"/>
-    </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
-        <v>141</v>
-      </c>
-      <c r="B146">
-        <v>173222</v>
-      </c>
-      <c r="D146" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
-        <v>142</v>
-      </c>
-      <c r="B147">
-        <v>173049</v>
-      </c>
-      <c r="D147" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E147"/>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>143</v>
-      </c>
-      <c r="B148">
-        <v>172439</v>
-      </c>
-      <c r="D148" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E148"/>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
-        <v>144</v>
-      </c>
-      <c r="B149">
-        <v>170961</v>
       </c>
       <c r="D149" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -3888,42 +3978,36 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B150">
-        <v>160077</v>
-      </c>
-      <c r="C150">
-        <v>228</v>
-      </c>
-      <c r="D150" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>702.09210526315792</v>
+        <v>199508</v>
+      </c>
+      <c r="D150" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E150"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B151">
-        <v>153040</v>
-      </c>
-      <c r="C151">
-        <v>228</v>
-      </c>
-      <c r="D151" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>671.22807017543857</v>
+        <v>197928</v>
+      </c>
+      <c r="D151" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E151"/>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B152">
-        <v>169746</v>
+        <v>193388</v>
       </c>
       <c r="D152" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -3931,12 +4015,12 @@
       </c>
       <c r="E152"/>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="B153">
-        <v>169702</v>
+        <v>54053</v>
       </c>
       <c r="D153" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -3944,12 +4028,12 @@
       </c>
       <c r="E153"/>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B154">
-        <v>168151</v>
+        <v>187875</v>
       </c>
       <c r="D154" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -3957,12 +4041,12 @@
       </c>
       <c r="E154"/>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B155">
-        <v>167011</v>
+        <v>186763</v>
       </c>
       <c r="D155" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -3970,12 +4054,12 @@
       </c>
       <c r="E155"/>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="B156">
-        <v>166501</v>
+        <v>53621</v>
       </c>
       <c r="D156" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -3983,12 +4067,12 @@
       </c>
       <c r="E156"/>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="B157">
-        <v>165347</v>
+        <v>52717</v>
       </c>
       <c r="D157" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -3996,12 +4080,12 @@
       </c>
       <c r="E157"/>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B158">
-        <v>165221</v>
+        <v>184797</v>
       </c>
       <c r="D158" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4009,12 +4093,12 @@
       </c>
       <c r="E158"/>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="B159">
-        <v>164189</v>
+        <v>50194</v>
       </c>
       <c r="D159" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4022,12 +4106,12 @@
       </c>
       <c r="E159"/>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B160">
-        <v>163547</v>
+        <v>183893</v>
       </c>
       <c r="D160" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4035,12 +4119,12 @@
       </c>
       <c r="E160"/>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B161">
-        <v>163341</v>
+        <v>183155</v>
       </c>
       <c r="D161" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4048,12 +4132,12 @@
       </c>
       <c r="E161"/>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B162">
-        <v>161542</v>
+        <v>182845</v>
       </c>
       <c r="D162" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4061,12 +4145,12 @@
       </c>
       <c r="E162"/>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="B163">
-        <v>161261</v>
+        <v>47842</v>
       </c>
       <c r="D163" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4074,12 +4158,12 @@
       </c>
       <c r="E163"/>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="B164">
-        <v>160331</v>
+        <v>46773</v>
       </c>
       <c r="D164" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4089,26 +4173,23 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B165">
-        <v>170013</v>
-      </c>
-      <c r="C165">
-        <v>260</v>
-      </c>
-      <c r="D165" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>653.89615384615388</v>
+        <v>177496</v>
+      </c>
+      <c r="D165" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E165"/>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B166">
-        <v>158054</v>
+        <v>176309</v>
       </c>
       <c r="D166" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4116,12 +4197,12 @@
       </c>
       <c r="E166"/>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B167">
-        <v>157998</v>
+        <v>175017</v>
       </c>
       <c r="D167" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4129,12 +4210,12 @@
       </c>
       <c r="E167"/>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B168">
-        <v>156991</v>
+        <v>174884</v>
       </c>
       <c r="D168" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4142,12 +4223,12 @@
       </c>
       <c r="E168"/>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="B169">
-        <v>156864</v>
+        <v>45527</v>
       </c>
       <c r="D169" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4155,12 +4236,12 @@
       </c>
       <c r="E169"/>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B170">
-        <v>156850</v>
+        <v>173922</v>
       </c>
       <c r="D170" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4168,12 +4249,12 @@
       </c>
       <c r="E170"/>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="B171">
-        <v>156582</v>
+        <v>173684</v>
       </c>
       <c r="D171" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4181,12 +4262,12 @@
       </c>
       <c r="E171"/>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B172">
-        <v>156287</v>
+        <v>173222</v>
       </c>
       <c r="D172" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4194,12 +4275,12 @@
       </c>
       <c r="E172"/>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B173">
-        <v>156131</v>
+        <v>173049</v>
       </c>
       <c r="D173" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4207,12 +4288,12 @@
       </c>
       <c r="E173"/>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B174">
-        <v>155165</v>
+        <v>172439</v>
       </c>
       <c r="D174" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4220,12 +4301,12 @@
       </c>
       <c r="E174"/>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B175">
-        <v>155164</v>
+        <v>170961</v>
       </c>
       <c r="D175" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4233,12 +4314,12 @@
       </c>
       <c r="E175"/>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B176">
-        <v>154054</v>
+        <v>169746</v>
       </c>
       <c r="D176" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4246,12 +4327,12 @@
       </c>
       <c r="E176"/>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B177">
-        <v>153639</v>
+        <v>169702</v>
       </c>
       <c r="D177" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4259,12 +4340,12 @@
       </c>
       <c r="E177"/>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B178">
-        <v>153504</v>
+        <v>168151</v>
       </c>
       <c r="D178" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4274,351 +4355,351 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B179">
-        <v>169792</v>
-      </c>
-      <c r="C179">
-        <v>260</v>
-      </c>
-      <c r="D179" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>653.04615384615386</v>
+        <v>167011</v>
+      </c>
+      <c r="D179" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E179"/>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
+        <v>151</v>
+      </c>
+      <c r="B180">
+        <v>166501</v>
+      </c>
+      <c r="D180" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>152</v>
+      </c>
+      <c r="B181">
+        <v>165347</v>
+      </c>
+      <c r="D181" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>153</v>
+      </c>
+      <c r="B182">
+        <v>165221</v>
+      </c>
+      <c r="C182">
+        <v>600</v>
+      </c>
+      <c r="D182">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>275.36833333333334</v>
+      </c>
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>154</v>
+      </c>
+      <c r="B183">
+        <v>164189</v>
+      </c>
+      <c r="D183" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>155</v>
+      </c>
+      <c r="B184">
+        <v>163547</v>
+      </c>
+      <c r="D184" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>156</v>
+      </c>
+      <c r="B185">
+        <v>163341</v>
+      </c>
+      <c r="D185" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>157</v>
+      </c>
+      <c r="B186">
+        <v>161542</v>
+      </c>
+      <c r="D186" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>158</v>
+      </c>
+      <c r="B187">
+        <v>161261</v>
+      </c>
+      <c r="D187" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>159</v>
+      </c>
+      <c r="B188">
+        <v>160331</v>
+      </c>
+      <c r="D188" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>161</v>
+      </c>
+      <c r="B189">
+        <v>158054</v>
+      </c>
+      <c r="D189" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190">
+        <v>157998</v>
+      </c>
+      <c r="D190" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>163</v>
+      </c>
+      <c r="B191">
+        <v>156991</v>
+      </c>
+      <c r="D191" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>164</v>
+      </c>
+      <c r="B192">
+        <v>156864</v>
+      </c>
+      <c r="D192" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>165</v>
+      </c>
+      <c r="B193">
+        <v>156850</v>
+      </c>
+      <c r="D193" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>166</v>
+      </c>
+      <c r="B194">
+        <v>156582</v>
+      </c>
+      <c r="D194" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>167</v>
+      </c>
+      <c r="B195">
+        <v>156287</v>
+      </c>
+      <c r="D195" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>168</v>
+      </c>
+      <c r="B196">
+        <v>156131</v>
+      </c>
+      <c r="D196" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>169</v>
+      </c>
+      <c r="B197">
+        <v>155165</v>
+      </c>
+      <c r="D197" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>170</v>
+      </c>
+      <c r="B198">
+        <v>155164</v>
+      </c>
+      <c r="D198" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>171</v>
+      </c>
+      <c r="B199">
+        <v>154054</v>
+      </c>
+      <c r="D199" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>172</v>
+      </c>
+      <c r="B200">
+        <v>153639</v>
+      </c>
+      <c r="D200" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>173</v>
+      </c>
+      <c r="B201">
+        <v>153504</v>
+      </c>
+      <c r="D201" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E201"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
         <v>175</v>
       </c>
-      <c r="B180">
+      <c r="B202">
         <v>151774</v>
       </c>
-      <c r="D180" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E180"/>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
+      <c r="D202" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E202"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
         <v>176</v>
       </c>
-      <c r="B181">
+      <c r="B203">
         <v>151174</v>
       </c>
-      <c r="D181" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E181"/>
-    </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
+      <c r="D203" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E203"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
         <v>177</v>
       </c>
-      <c r="B182">
+      <c r="B204">
         <v>151020</v>
       </c>
-      <c r="D182" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E182"/>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
+      <c r="D204" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E204"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
         <v>178</v>
       </c>
-      <c r="B183">
+      <c r="B205">
         <v>147176</v>
-      </c>
-      <c r="D183" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E183"/>
-    </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
-        <v>179</v>
-      </c>
-      <c r="B184">
-        <v>144614</v>
-      </c>
-      <c r="D184" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E184"/>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
-        <v>180</v>
-      </c>
-      <c r="B185">
-        <v>140143</v>
-      </c>
-      <c r="D185" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E185"/>
-    </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
-        <v>181</v>
-      </c>
-      <c r="B186">
-        <v>132045</v>
-      </c>
-      <c r="D186" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E186"/>
-    </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
-        <v>182</v>
-      </c>
-      <c r="B187">
-        <v>131544</v>
-      </c>
-      <c r="D187" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E187"/>
-    </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
-        <v>183</v>
-      </c>
-      <c r="B188">
-        <v>128807</v>
-      </c>
-      <c r="D188" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E188"/>
-    </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
-        <v>184</v>
-      </c>
-      <c r="B189">
-        <v>126909</v>
-      </c>
-      <c r="D189" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E189"/>
-    </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
-        <v>185</v>
-      </c>
-      <c r="B190">
-        <v>124932</v>
-      </c>
-      <c r="D190" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E190"/>
-    </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A191" t="s">
-        <v>186</v>
-      </c>
-      <c r="B191">
-        <v>120228</v>
-      </c>
-      <c r="D191" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E191"/>
-    </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A192" t="s">
-        <v>187</v>
-      </c>
-      <c r="B192">
-        <v>115840</v>
-      </c>
-      <c r="D192" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E192"/>
-    </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A193" t="s">
-        <v>188</v>
-      </c>
-      <c r="B193">
-        <v>115396</v>
-      </c>
-      <c r="D193" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E193"/>
-    </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A194" t="s">
-        <v>189</v>
-      </c>
-      <c r="B194">
-        <v>114590</v>
-      </c>
-      <c r="D194" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E194"/>
-    </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
-        <v>308</v>
-      </c>
-      <c r="B195">
-        <v>45015</v>
-      </c>
-      <c r="D195" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E195"/>
-    </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
-        <v>310</v>
-      </c>
-      <c r="B196">
-        <v>44812</v>
-      </c>
-      <c r="D196" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E196"/>
-    </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A197" t="s">
-        <v>312</v>
-      </c>
-      <c r="B197">
-        <v>43913</v>
-      </c>
-      <c r="D197" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E197"/>
-    </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A198" t="s">
-        <v>193</v>
-      </c>
-      <c r="B198">
-        <v>110541</v>
-      </c>
-      <c r="D198" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E198"/>
-    </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A199" t="s">
-        <v>194</v>
-      </c>
-      <c r="B199">
-        <v>110312</v>
-      </c>
-      <c r="D199" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E199"/>
-    </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A200" t="s">
-        <v>195</v>
-      </c>
-      <c r="B200">
-        <v>107977</v>
-      </c>
-      <c r="D200" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E200"/>
-    </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A201" t="s">
-        <v>196</v>
-      </c>
-      <c r="B201">
-        <v>106338</v>
-      </c>
-      <c r="D201" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E201"/>
-    </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A202" t="s">
-        <v>314</v>
-      </c>
-      <c r="B202">
-        <v>43419</v>
-      </c>
-      <c r="D202" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E202"/>
-    </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A203" t="s">
-        <v>198</v>
-      </c>
-      <c r="B203">
-        <v>104905</v>
-      </c>
-      <c r="D203" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E203"/>
-    </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A204" t="s">
-        <v>199</v>
-      </c>
-      <c r="B204">
-        <v>102717</v>
-      </c>
-      <c r="D204" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E204"/>
-    </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A205" t="s">
-        <v>200</v>
-      </c>
-      <c r="B205">
-        <v>101308</v>
       </c>
       <c r="D205" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4628,26 +4709,23 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>337</v>
+        <v>179</v>
       </c>
       <c r="B206">
-        <v>35001</v>
-      </c>
-      <c r="C206">
-        <v>60</v>
-      </c>
-      <c r="D206" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>583.35</v>
+        <v>144614</v>
+      </c>
+      <c r="D206" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E206"/>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B207">
-        <v>101016</v>
+        <v>140143</v>
       </c>
       <c r="D207" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4655,12 +4733,12 @@
       </c>
       <c r="E207"/>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B208">
-        <v>98888</v>
+        <v>132045</v>
       </c>
       <c r="D208" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4668,12 +4746,12 @@
       </c>
       <c r="E208"/>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B209">
-        <v>97963</v>
+        <v>131544</v>
       </c>
       <c r="D209" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4681,12 +4759,12 @@
       </c>
       <c r="E209"/>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B210">
-        <v>96201</v>
+        <v>128807</v>
       </c>
       <c r="D210" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4694,12 +4772,12 @@
       </c>
       <c r="E210"/>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="B211">
-        <v>43166</v>
+        <v>126909</v>
       </c>
       <c r="D211" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4707,12 +4785,12 @@
       </c>
       <c r="E211"/>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B212">
-        <v>94040</v>
+        <v>124932</v>
       </c>
       <c r="D212" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -4722,481 +4800,478 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>339</v>
+        <v>186</v>
       </c>
       <c r="B213">
-        <v>34933</v>
-      </c>
-      <c r="C213">
-        <v>60</v>
-      </c>
-      <c r="D213" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>582.2166666666667</v>
+        <v>120228</v>
+      </c>
+      <c r="D213" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E213"/>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
+        <v>187</v>
+      </c>
+      <c r="B214">
+        <v>115840</v>
+      </c>
+      <c r="D214" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>188</v>
+      </c>
+      <c r="B215">
+        <v>115396</v>
+      </c>
+      <c r="D215" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>189</v>
+      </c>
+      <c r="B216">
+        <v>114590</v>
+      </c>
+      <c r="D216" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>308</v>
+      </c>
+      <c r="B217">
+        <v>45015</v>
+      </c>
+      <c r="D217" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E217"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>310</v>
+      </c>
+      <c r="B218">
+        <v>44812</v>
+      </c>
+      <c r="D218" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>312</v>
+      </c>
+      <c r="B219">
+        <v>43913</v>
+      </c>
+      <c r="D219" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E219"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>193</v>
+      </c>
+      <c r="B220">
+        <v>110541</v>
+      </c>
+      <c r="D220" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E220"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>194</v>
+      </c>
+      <c r="B221">
+        <v>110312</v>
+      </c>
+      <c r="D221" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E221"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>195</v>
+      </c>
+      <c r="B222">
+        <v>107977</v>
+      </c>
+      <c r="D222" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E222"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>196</v>
+      </c>
+      <c r="B223">
+        <v>106338</v>
+      </c>
+      <c r="D223" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E223"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>314</v>
+      </c>
+      <c r="B224">
+        <v>43419</v>
+      </c>
+      <c r="D224" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E224"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>198</v>
+      </c>
+      <c r="B225">
+        <v>104905</v>
+      </c>
+      <c r="D225" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E225"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>199</v>
+      </c>
+      <c r="B226">
+        <v>102717</v>
+      </c>
+      <c r="D226" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E226"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>200</v>
+      </c>
+      <c r="B227">
+        <v>101308</v>
+      </c>
+      <c r="D227" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E227"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>202</v>
+      </c>
+      <c r="B228">
+        <v>101016</v>
+      </c>
+      <c r="D228" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E228"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>203</v>
+      </c>
+      <c r="B229">
+        <v>98888</v>
+      </c>
+      <c r="D229" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E229"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>204</v>
+      </c>
+      <c r="B230">
+        <v>97963</v>
+      </c>
+      <c r="D230" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E230"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>205</v>
+      </c>
+      <c r="B231">
+        <v>96201</v>
+      </c>
+      <c r="D231" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E231"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>316</v>
+      </c>
+      <c r="B232">
+        <v>43166</v>
+      </c>
+      <c r="D232" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E232"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>207</v>
+      </c>
+      <c r="B233">
+        <v>94040</v>
+      </c>
+      <c r="D233" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E233"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
         <v>209</v>
       </c>
-      <c r="B214">
+      <c r="B234">
         <v>92372</v>
       </c>
-      <c r="D214" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E214"/>
-    </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A215" t="s">
+      <c r="D234" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E234"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
         <v>210</v>
       </c>
-      <c r="B215">
+      <c r="B235">
         <v>92012</v>
       </c>
-      <c r="D215" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E215"/>
-    </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
+      <c r="D235" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E235"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
         <v>211</v>
       </c>
-      <c r="B216">
+      <c r="B236">
         <v>90490</v>
       </c>
-      <c r="D216" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E216"/>
-    </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A217" t="s">
+      <c r="D236" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E236"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
         <v>212</v>
       </c>
-      <c r="B217">
+      <c r="B237">
         <v>89216</v>
       </c>
-      <c r="D217" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E217"/>
-    </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A218" t="s">
+      <c r="D237" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E237"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
         <v>213</v>
       </c>
-      <c r="B218">
+      <c r="B238">
         <v>88470</v>
       </c>
-      <c r="D218" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E218"/>
-    </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A219" t="s">
+      <c r="D238" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E238"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
         <v>214</v>
       </c>
-      <c r="B219">
+      <c r="B239">
         <v>88263</v>
       </c>
-      <c r="D219" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E219"/>
-    </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A220" t="s">
+      <c r="D239" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E239"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
         <v>215</v>
       </c>
-      <c r="B220">
+      <c r="B240">
         <v>87378</v>
       </c>
-      <c r="D220" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E220"/>
-    </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A221" t="s">
+      <c r="D240" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E240"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
         <v>216</v>
       </c>
-      <c r="B221">
+      <c r="B241">
         <v>86032</v>
       </c>
-      <c r="D221" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E221"/>
-    </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A222" t="s">
+      <c r="D241" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E241"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
         <v>217</v>
       </c>
-      <c r="B222">
+      <c r="B242">
         <v>85900</v>
       </c>
-      <c r="D222" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E222"/>
-    </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A223" t="s">
+      <c r="D242" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E242"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
         <v>218</v>
       </c>
-      <c r="B223">
+      <c r="B243">
         <v>85475</v>
       </c>
-      <c r="D223" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E223"/>
-    </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A224" t="s">
+      <c r="D243" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E243"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
         <v>219</v>
       </c>
-      <c r="B224">
+      <c r="B244">
         <v>82831</v>
       </c>
-      <c r="D224" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E224"/>
-    </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A225" t="s">
+      <c r="D244" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E244"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
         <v>220</v>
       </c>
-      <c r="B225">
+      <c r="B245">
         <v>82750</v>
       </c>
-      <c r="D225" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E225"/>
-    </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
+      <c r="D245" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E245"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
         <v>221</v>
       </c>
-      <c r="B226">
+      <c r="B246">
         <v>82584</v>
       </c>
-      <c r="D226" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E226"/>
-    </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
+      <c r="D246" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E246"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
         <v>222</v>
       </c>
-      <c r="B227">
+      <c r="B247">
         <v>82458</v>
       </c>
-      <c r="D227" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E227"/>
-    </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A228" t="s">
+      <c r="D247" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E247"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
         <v>223</v>
       </c>
-      <c r="B228">
+      <c r="B248">
         <v>82250</v>
       </c>
-      <c r="D228" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E228"/>
-    </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
+      <c r="D248" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E248"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
         <v>318</v>
       </c>
-      <c r="B229">
+      <c r="B249">
         <v>42386</v>
-      </c>
-      <c r="D229" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E229"/>
-    </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A230" t="s">
-        <v>225</v>
-      </c>
-      <c r="B230">
-        <v>80458</v>
-      </c>
-      <c r="D230" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E230"/>
-    </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
-        <v>319</v>
-      </c>
-      <c r="B231">
-        <v>40570</v>
-      </c>
-      <c r="D231" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E231"/>
-    </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
-        <v>227</v>
-      </c>
-      <c r="B232">
-        <v>80083</v>
-      </c>
-      <c r="D232" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E232"/>
-    </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
-        <v>320</v>
-      </c>
-      <c r="B233">
-        <v>39429</v>
-      </c>
-      <c r="D233" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E233"/>
-    </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
-        <v>321</v>
-      </c>
-      <c r="B234">
-        <v>39312</v>
-      </c>
-      <c r="D234" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E234"/>
-    </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A235" t="s">
-        <v>322</v>
-      </c>
-      <c r="B235">
-        <v>39146</v>
-      </c>
-      <c r="D235" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E235"/>
-    </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A236" t="s">
-        <v>323</v>
-      </c>
-      <c r="B236">
-        <v>39137</v>
-      </c>
-      <c r="D236" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E236"/>
-    </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
-        <v>324</v>
-      </c>
-      <c r="B237">
-        <v>39099</v>
-      </c>
-      <c r="D237" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E237"/>
-    </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
-        <v>325</v>
-      </c>
-      <c r="B238">
-        <v>38667</v>
-      </c>
-      <c r="D238" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E238"/>
-    </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
-        <v>326</v>
-      </c>
-      <c r="B239">
-        <v>38555</v>
-      </c>
-      <c r="D239" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E239"/>
-    </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
-        <v>327</v>
-      </c>
-      <c r="B240">
-        <v>38465</v>
-      </c>
-      <c r="D240" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E240"/>
-    </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A241" t="s">
-        <v>328</v>
-      </c>
-      <c r="B241">
-        <v>38172</v>
-      </c>
-      <c r="D241" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E241"/>
-    </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
-        <v>329</v>
-      </c>
-      <c r="B242">
-        <v>38091</v>
-      </c>
-      <c r="D242" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E242"/>
-    </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A243" t="s">
-        <v>330</v>
-      </c>
-      <c r="B243">
-        <v>37979</v>
-      </c>
-      <c r="D243" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E243"/>
-    </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
-        <v>331</v>
-      </c>
-      <c r="B244">
-        <v>36930</v>
-      </c>
-      <c r="D244" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E244"/>
-    </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A245" t="s">
-        <v>332</v>
-      </c>
-      <c r="B245">
-        <v>36774</v>
-      </c>
-      <c r="D245" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E245"/>
-    </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
-        <v>333</v>
-      </c>
-      <c r="B246">
-        <v>36137</v>
-      </c>
-      <c r="D246" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E246"/>
-    </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
-        <v>334</v>
-      </c>
-      <c r="B247">
-        <v>35825</v>
-      </c>
-      <c r="D247" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E247"/>
-    </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A248" t="s">
-        <v>335</v>
-      </c>
-      <c r="B248">
-        <v>35651</v>
-      </c>
-      <c r="D248" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E248"/>
-    </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A249" t="s">
-        <v>336</v>
-      </c>
-      <c r="B249">
-        <v>35404</v>
       </c>
       <c r="D249" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5206,26 +5281,23 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>346</v>
+        <v>225</v>
       </c>
       <c r="B250">
-        <v>34376</v>
-      </c>
-      <c r="C250">
-        <v>60</v>
-      </c>
-      <c r="D250" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>572.93333333333328</v>
+        <v>80458</v>
+      </c>
+      <c r="D250" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E250"/>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="B251">
-        <v>73181</v>
+        <v>40570</v>
       </c>
       <c r="D251" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5233,12 +5305,12 @@
       </c>
       <c r="E251"/>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="B252">
-        <v>34992</v>
+        <v>80083</v>
       </c>
       <c r="D252" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5246,12 +5318,12 @@
       </c>
       <c r="E252"/>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>248</v>
+        <v>320</v>
       </c>
       <c r="B253">
-        <v>72851</v>
+        <v>39429</v>
       </c>
       <c r="D253" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5261,26 +5333,23 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="B254">
-        <v>101274</v>
-      </c>
-      <c r="C254">
-        <v>200</v>
-      </c>
-      <c r="D254" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>506.37</v>
+        <v>39312</v>
+      </c>
+      <c r="D254" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E254"/>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
       <c r="B255">
-        <v>72711</v>
+        <v>39146</v>
       </c>
       <c r="D255" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5288,12 +5357,12 @@
       </c>
       <c r="E255"/>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B256">
-        <v>34926</v>
+        <v>39137</v>
       </c>
       <c r="D256" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5301,12 +5370,12 @@
       </c>
       <c r="E256"/>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="B257">
-        <v>72567</v>
+        <v>39099</v>
       </c>
       <c r="D257" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5314,12 +5383,12 @@
       </c>
       <c r="E257"/>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B258">
-        <v>34814</v>
+        <v>38667</v>
       </c>
       <c r="D258" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5327,12 +5396,12 @@
       </c>
       <c r="E258"/>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
       <c r="B259">
-        <v>72264</v>
+        <v>38555</v>
       </c>
       <c r="D259" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5340,12 +5409,12 @@
       </c>
       <c r="E259"/>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B260">
-        <v>34676</v>
+        <v>38465</v>
       </c>
       <c r="D260" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5353,12 +5422,12 @@
       </c>
       <c r="E260"/>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="B261">
-        <v>71290</v>
+        <v>38172</v>
       </c>
       <c r="D261" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5368,559 +5437,556 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="B262">
-        <v>72886</v>
-      </c>
-      <c r="C262">
-        <v>145</v>
-      </c>
-      <c r="D262" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>502.66206896551722</v>
+        <v>38091</v>
+      </c>
+      <c r="D262" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E262"/>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
+        <v>330</v>
+      </c>
+      <c r="B263">
+        <v>37979</v>
+      </c>
+      <c r="D263" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E263"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
+        <v>331</v>
+      </c>
+      <c r="B264">
+        <v>36930</v>
+      </c>
+      <c r="D264" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E264"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>332</v>
+      </c>
+      <c r="B265">
+        <v>36774</v>
+      </c>
+      <c r="D265" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E265"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>333</v>
+      </c>
+      <c r="B266">
+        <v>36137</v>
+      </c>
+      <c r="D266" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E266"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
+        <v>334</v>
+      </c>
+      <c r="B267">
+        <v>35825</v>
+      </c>
+      <c r="D267" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E267"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>335</v>
+      </c>
+      <c r="B268">
+        <v>35651</v>
+      </c>
+      <c r="D268" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E268"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
+        <v>336</v>
+      </c>
+      <c r="B269">
+        <v>35404</v>
+      </c>
+      <c r="D269" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E269"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>246</v>
+      </c>
+      <c r="B270">
+        <v>73181</v>
+      </c>
+      <c r="D270" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E270"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>338</v>
+      </c>
+      <c r="B271">
+        <v>34992</v>
+      </c>
+      <c r="D271" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E271"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>248</v>
+      </c>
+      <c r="B272">
+        <v>72851</v>
+      </c>
+      <c r="D272" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E272"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>250</v>
+      </c>
+      <c r="B273">
+        <v>72711</v>
+      </c>
+      <c r="D273" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E273"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>340</v>
+      </c>
+      <c r="B274">
+        <v>34926</v>
+      </c>
+      <c r="D274" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E274"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
+        <v>252</v>
+      </c>
+      <c r="B275">
+        <v>72567</v>
+      </c>
+      <c r="D275" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E275"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
+        <v>342</v>
+      </c>
+      <c r="B276">
+        <v>34814</v>
+      </c>
+      <c r="D276" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E276"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
+        <v>254</v>
+      </c>
+      <c r="B277">
+        <v>72264</v>
+      </c>
+      <c r="D277" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E277"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>344</v>
+      </c>
+      <c r="B278">
+        <v>34676</v>
+      </c>
+      <c r="D278" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E278"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>256</v>
+      </c>
+      <c r="B279">
+        <v>71290</v>
+      </c>
+      <c r="D279" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E279"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
         <v>258</v>
       </c>
-      <c r="B263">
+      <c r="B280">
         <v>70590</v>
       </c>
-      <c r="D263" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E263"/>
-    </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A264" t="s">
+      <c r="D280" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E280"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
         <v>229</v>
       </c>
-      <c r="B264">
+      <c r="B281">
         <v>77970</v>
       </c>
-      <c r="D264" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E264"/>
-    </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
+      <c r="D281" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E281"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
         <v>260</v>
       </c>
-      <c r="B265">
+      <c r="B282">
         <v>70145</v>
       </c>
-      <c r="D265" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E265"/>
-    </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
+      <c r="D282" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E282"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
         <v>231</v>
       </c>
-      <c r="B266">
+      <c r="B283">
         <v>77396</v>
       </c>
-      <c r="D266" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E266"/>
-    </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A267" t="s">
+      <c r="D283" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E283"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
         <v>262</v>
       </c>
-      <c r="B267">
+      <c r="B284">
         <v>66950</v>
       </c>
-      <c r="D267" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E267"/>
-    </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
+      <c r="D284" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E284"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
         <v>233</v>
       </c>
-      <c r="B268">
+      <c r="B285">
         <v>77136</v>
       </c>
-      <c r="D268" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E268"/>
-    </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A269" t="s">
+      <c r="D285" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E285"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
         <v>264</v>
       </c>
-      <c r="B269">
+      <c r="B286">
         <v>66757</v>
       </c>
-      <c r="D269" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E269"/>
-    </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A270" t="s">
+      <c r="D286" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E286"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
         <v>235</v>
       </c>
-      <c r="B270">
+      <c r="B287">
         <v>76946</v>
       </c>
-      <c r="D270" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E270"/>
-    </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
+      <c r="D287" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E287"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A288" t="s">
         <v>266</v>
       </c>
-      <c r="B271">
+      <c r="B288">
         <v>66381</v>
       </c>
-      <c r="D271" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E271"/>
-    </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
+      <c r="D288" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E288"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A289" t="s">
         <v>237</v>
       </c>
-      <c r="B272">
+      <c r="B289">
         <v>76764</v>
       </c>
-      <c r="D272" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E272"/>
-    </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A273" t="s">
+      <c r="D289" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E289"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A290" t="s">
         <v>268</v>
       </c>
-      <c r="B273">
+      <c r="B290">
         <v>65127</v>
       </c>
-      <c r="D273" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E273"/>
-    </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A274" t="s">
+      <c r="D290" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A291" t="s">
         <v>269</v>
       </c>
-      <c r="B274">
+      <c r="B291">
         <v>64768</v>
       </c>
-      <c r="D274" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E274"/>
-    </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
+      <c r="D291" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E291"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A292" t="s">
         <v>270</v>
       </c>
-      <c r="B275">
+      <c r="B292">
         <v>64286</v>
       </c>
-      <c r="D275" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E275"/>
-    </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A276" t="s">
+      <c r="D292" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E292"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A293" t="s">
         <v>271</v>
       </c>
-      <c r="B276">
+      <c r="B293">
         <v>62875</v>
       </c>
-      <c r="D276" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E276"/>
-    </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A277" t="s">
+      <c r="D293" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E293"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
         <v>272</v>
       </c>
-      <c r="B277">
+      <c r="B294">
         <v>62822</v>
       </c>
-      <c r="D277" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E277"/>
-    </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A278" t="s">
+      <c r="D294" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E294"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
         <v>273</v>
       </c>
-      <c r="B278">
+      <c r="B295">
         <v>62361</v>
       </c>
-      <c r="D278" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E278"/>
-    </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
+      <c r="D295" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E295"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
         <v>274</v>
       </c>
-      <c r="B279">
+      <c r="B296">
         <v>62278</v>
       </c>
-      <c r="D279" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E279"/>
-    </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A280" t="s">
+      <c r="D296" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E296"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A297" t="s">
         <v>275</v>
       </c>
-      <c r="B280">
+      <c r="B297">
         <v>62261</v>
       </c>
-      <c r="D280" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E280"/>
-    </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A281" t="s">
+      <c r="D297" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E297"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
         <v>276</v>
       </c>
-      <c r="B281">
+      <c r="B298">
         <v>60767</v>
       </c>
-      <c r="D281" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E281"/>
-    </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A282" t="s">
+      <c r="D298" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E298"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A299" t="s">
         <v>277</v>
       </c>
-      <c r="B282">
+      <c r="B299">
         <v>60447</v>
       </c>
-      <c r="D282" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E282"/>
-    </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A283" t="s">
+      <c r="D299" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E299"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
         <v>278</v>
       </c>
-      <c r="B283">
+      <c r="B300">
         <v>59854</v>
       </c>
-      <c r="D283" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E283"/>
-    </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A284" t="s">
+      <c r="D300" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E300"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
         <v>279</v>
       </c>
-      <c r="B284">
+      <c r="B301">
         <v>59171</v>
       </c>
-      <c r="D284" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E284"/>
-    </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A285" t="s">
+      <c r="D301" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E301"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A302" t="s">
         <v>280</v>
       </c>
-      <c r="B285">
+      <c r="B302">
         <v>58494</v>
       </c>
-      <c r="D285" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E285"/>
-    </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A286" t="s">
+      <c r="D302" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E302"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
         <v>281</v>
       </c>
-      <c r="B286">
+      <c r="B303">
         <v>58236</v>
       </c>
-      <c r="D286" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E286"/>
-    </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A287" t="s">
+      <c r="D303" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E303"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A304" t="s">
         <v>282</v>
       </c>
-      <c r="B287">
+      <c r="B304">
         <v>58044</v>
-      </c>
-      <c r="D287" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E287"/>
-    </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A288" t="s">
-        <v>283</v>
-      </c>
-      <c r="B288">
-        <v>58013</v>
-      </c>
-      <c r="D288" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E288"/>
-    </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A289" t="s">
-        <v>284</v>
-      </c>
-      <c r="B289">
-        <v>57043</v>
-      </c>
-      <c r="D289" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E289"/>
-    </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A290" t="s">
-        <v>285</v>
-      </c>
-      <c r="B290">
-        <v>56810</v>
-      </c>
-      <c r="D290" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E290"/>
-    </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A291" t="s">
-        <v>286</v>
-      </c>
-      <c r="B291">
-        <v>56726</v>
-      </c>
-      <c r="D291" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E291"/>
-    </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A292" t="s">
-        <v>287</v>
-      </c>
-      <c r="B292">
-        <v>56543</v>
-      </c>
-      <c r="D292" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E292"/>
-    </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A293" t="s">
-        <v>288</v>
-      </c>
-      <c r="B293">
-        <v>56287</v>
-      </c>
-      <c r="D293" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E293"/>
-    </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A294" t="s">
-        <v>289</v>
-      </c>
-      <c r="B294">
-        <v>55802</v>
-      </c>
-      <c r="D294" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E294"/>
-    </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A295" t="s">
-        <v>290</v>
-      </c>
-      <c r="B295">
-        <v>55736</v>
-      </c>
-      <c r="D295" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E295"/>
-    </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A296" t="s">
-        <v>291</v>
-      </c>
-      <c r="B296">
-        <v>55590</v>
-      </c>
-      <c r="D296" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E296"/>
-    </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A297" t="s">
-        <v>239</v>
-      </c>
-      <c r="B297">
-        <v>74847</v>
-      </c>
-      <c r="D297" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E297"/>
-    </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A298" t="s">
-        <v>293</v>
-      </c>
-      <c r="B298">
-        <v>54358</v>
-      </c>
-      <c r="D298" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E298"/>
-    </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A299" t="s">
-        <v>241</v>
-      </c>
-      <c r="B299">
-        <v>74414</v>
-      </c>
-      <c r="D299" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E299"/>
-    </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A300" t="s">
-        <v>295</v>
-      </c>
-      <c r="B300">
-        <v>53921</v>
-      </c>
-      <c r="D300" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E300"/>
-    </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A301" t="s">
-        <v>243</v>
-      </c>
-      <c r="B301">
-        <v>73899</v>
-      </c>
-      <c r="D301" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E301"/>
-    </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A302" t="s">
-        <v>297</v>
-      </c>
-      <c r="B302">
-        <v>53472</v>
-      </c>
-      <c r="D302" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E302"/>
-    </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A303" t="s">
-        <v>245</v>
-      </c>
-      <c r="B303">
-        <v>73471</v>
-      </c>
-      <c r="D303" t="e">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E303"/>
-    </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A304" t="s">
-        <v>299</v>
-      </c>
-      <c r="B304">
-        <v>51500</v>
       </c>
       <c r="D304" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5930,26 +5996,23 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="B305">
-        <v>72678</v>
-      </c>
-      <c r="C305">
-        <v>145</v>
-      </c>
-      <c r="D305" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>501.22758620689655</v>
+        <v>58013</v>
+      </c>
+      <c r="D305" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E305"/>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B306">
-        <v>48363</v>
+        <v>57043</v>
       </c>
       <c r="D306" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5957,12 +6020,12 @@
       </c>
       <c r="E306"/>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="B307">
-        <v>72848</v>
+        <v>56810</v>
       </c>
       <c r="D307" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5970,12 +6033,12 @@
       </c>
       <c r="E307"/>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B308">
-        <v>47746</v>
+        <v>56726</v>
       </c>
       <c r="D308" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -5985,26 +6048,23 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="B309">
-        <v>71775</v>
-      </c>
-      <c r="C309">
-        <v>145</v>
-      </c>
-      <c r="D309" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>495</v>
+        <v>56543</v>
+      </c>
+      <c r="D309" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E309"/>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B310">
-        <v>46302</v>
+        <v>56287</v>
       </c>
       <c r="D310" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6012,12 +6072,12 @@
       </c>
       <c r="E310"/>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B311">
-        <v>72387</v>
+        <v>55802</v>
       </c>
       <c r="D311" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6025,12 +6085,12 @@
       </c>
       <c r="E311"/>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B312">
-        <v>45470</v>
+        <v>55736</v>
       </c>
       <c r="D312" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6040,26 +6100,23 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>190</v>
+        <v>291</v>
       </c>
       <c r="B313">
-        <v>112457</v>
-      </c>
-      <c r="C313">
-        <v>230</v>
-      </c>
-      <c r="D313" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>488.94347826086954</v>
+        <v>55590</v>
+      </c>
+      <c r="D313" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E313"/>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="B314">
-        <v>44874</v>
+        <v>74847</v>
       </c>
       <c r="D314" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6069,26 +6126,23 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>191</v>
+        <v>293</v>
       </c>
       <c r="B315">
-        <v>112239</v>
-      </c>
-      <c r="C315">
-        <v>230</v>
-      </c>
-      <c r="D315" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>487.99565217391302</v>
+        <v>54358</v>
+      </c>
+      <c r="D315" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E315"/>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="B316">
-        <v>44427</v>
+        <v>74414</v>
       </c>
       <c r="D316" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6096,12 +6150,12 @@
       </c>
       <c r="E316"/>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="B317">
-        <v>70851</v>
+        <v>53921</v>
       </c>
       <c r="D317" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6109,12 +6163,12 @@
       </c>
       <c r="E317"/>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="B318">
-        <v>43667</v>
+        <v>73899</v>
       </c>
       <c r="D318" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6124,26 +6178,23 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="B319">
-        <v>93542</v>
-      </c>
-      <c r="C319">
-        <v>200</v>
-      </c>
-      <c r="D319" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>467.71</v>
+        <v>53472</v>
+      </c>
+      <c r="D319" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E319"/>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="B320">
-        <v>43214</v>
+        <v>73471</v>
       </c>
       <c r="D320" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6151,12 +6202,12 @@
       </c>
       <c r="E320"/>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="B321">
-        <v>65431</v>
+        <v>51500</v>
       </c>
       <c r="D321" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6164,12 +6215,12 @@
       </c>
       <c r="E321"/>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B322">
-        <v>43114</v>
+        <v>48363</v>
       </c>
       <c r="D322" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6177,12 +6228,12 @@
       </c>
       <c r="E322"/>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B323">
-        <v>70178</v>
+        <v>72848</v>
       </c>
       <c r="D323" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6190,12 +6241,12 @@
       </c>
       <c r="E323"/>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="B324">
-        <v>67558</v>
+        <v>47746</v>
       </c>
       <c r="D324" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6205,154 +6256,127 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="B325">
-        <v>74288</v>
-      </c>
-      <c r="C325">
-        <v>168</v>
-      </c>
-      <c r="D325" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>442.1904761904762</v>
+        <v>46302</v>
+      </c>
+      <c r="D325" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E325"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="B326">
-        <v>203032</v>
-      </c>
-      <c r="C326">
-        <v>460</v>
-      </c>
-      <c r="D326" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>441.37391304347824</v>
+        <v>72387</v>
+      </c>
+      <c r="D326" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E326"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="B327">
-        <v>189137</v>
-      </c>
-      <c r="C327">
-        <v>460</v>
-      </c>
-      <c r="D327" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>411.1673913043478</v>
+        <v>45470</v>
+      </c>
+      <c r="D327" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E327"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="B328">
-        <v>110888</v>
-      </c>
-      <c r="C328">
-        <v>271</v>
-      </c>
-      <c r="D328" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>409.18081180811811</v>
+        <v>44874</v>
+      </c>
+      <c r="D328" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E328"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c r="B329">
-        <v>185790</v>
-      </c>
-      <c r="C329">
-        <v>460</v>
-      </c>
-      <c r="D329" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>403.89130434782606</v>
+        <v>44427</v>
+      </c>
+      <c r="D329" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E329"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="B330">
-        <v>185785</v>
-      </c>
-      <c r="C330">
-        <v>460</v>
-      </c>
-      <c r="D330" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>403.88043478260869</v>
+        <v>70851</v>
+      </c>
+      <c r="D330" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E330"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c r="B331">
-        <v>184761</v>
-      </c>
-      <c r="C331">
-        <v>460</v>
-      </c>
-      <c r="D331" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>401.65434782608696</v>
+        <v>43667</v>
+      </c>
+      <c r="D331" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E331"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="B332">
-        <v>182710</v>
-      </c>
-      <c r="C332">
-        <v>460</v>
-      </c>
-      <c r="D332" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>397.19565217391306</v>
+        <v>43214</v>
+      </c>
+      <c r="D332" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E332"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="B333">
-        <v>105541</v>
-      </c>
-      <c r="C333">
-        <v>271</v>
-      </c>
-      <c r="D333" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>389.450184501845</v>
+        <v>65431</v>
+      </c>
+      <c r="D333" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E333"/>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="B334">
-        <v>77187</v>
+        <v>43114</v>
       </c>
       <c r="D334" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6360,12 +6384,12 @@
       </c>
       <c r="E334"/>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B335">
-        <v>76836</v>
+        <v>70178</v>
       </c>
       <c r="D335" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6375,26 +6399,23 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="B336">
-        <v>178523</v>
-      </c>
-      <c r="C336">
-        <v>460</v>
-      </c>
-      <c r="D336" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>388.09347826086957</v>
+        <v>67558</v>
+      </c>
+      <c r="D336" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E336"/>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B337">
-        <v>74919</v>
+        <v>77187</v>
       </c>
       <c r="D337" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6402,12 +6423,12 @@
       </c>
       <c r="E337"/>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B338">
-        <v>74637</v>
+        <v>76836</v>
       </c>
       <c r="D338" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6417,26 +6438,23 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="B339">
-        <v>174542</v>
-      </c>
-      <c r="C339">
-        <v>460</v>
-      </c>
-      <c r="D339" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>379.43913043478261</v>
+        <v>74919</v>
+      </c>
+      <c r="D339" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E339"/>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B340">
-        <v>73793</v>
+        <v>74637</v>
       </c>
       <c r="D340" t="e">
         <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
@@ -6446,21 +6464,18 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="B341">
-        <v>95123</v>
-      </c>
-      <c r="C341">
-        <v>271</v>
-      </c>
-      <c r="D341" s="1">
-        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
-        <v>351.00738007380073</v>
+        <v>73793</v>
+      </c>
+      <c r="D341" t="e">
+        <f>表1[[#This Row],[分数]]/表1[[#This Row],[价格]]</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E341"/>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>263</v>
       </c>
@@ -6473,7 +6488,7 @@
       </c>
       <c r="E342"/>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>265</v>
       </c>
@@ -6486,7 +6501,7 @@
       </c>
       <c r="E343"/>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>224</v>
       </c>
@@ -6499,7 +6514,7 @@
       </c>
       <c r="E344"/>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>226</v>
       </c>
@@ -6512,7 +6527,7 @@
       </c>
       <c r="E345"/>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>341</v>
       </c>
@@ -6525,7 +6540,7 @@
       </c>
       <c r="E346"/>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>228</v>
       </c>
@@ -6538,7 +6553,7 @@
       </c>
       <c r="E347"/>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>343</v>
       </c>
@@ -6551,7 +6566,7 @@
       </c>
       <c r="E348"/>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>230</v>
       </c>
@@ -6564,7 +6579,7 @@
       </c>
       <c r="E349"/>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>345</v>
       </c>
@@ -6577,7 +6592,7 @@
       </c>
       <c r="E350"/>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>234</v>
       </c>
@@ -6590,7 +6605,7 @@
       </c>
       <c r="E351"/>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>347</v>
       </c>
@@ -6603,7 +6618,7 @@
       </c>
       <c r="E352"/>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>348</v>
       </c>
@@ -6616,7 +6631,7 @@
       </c>
       <c r="E353"/>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>349</v>
       </c>
@@ -6629,7 +6644,7 @@
       </c>
       <c r="E354"/>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>350</v>
       </c>
@@ -6642,7 +6657,7 @@
       </c>
       <c r="E355"/>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>351</v>
       </c>
@@ -6655,7 +6670,7 @@
       </c>
       <c r="E356"/>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>352</v>
       </c>
@@ -6668,7 +6683,7 @@
       </c>
       <c r="E357"/>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>353</v>
       </c>
@@ -6681,7 +6696,7 @@
       </c>
       <c r="E358"/>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>354</v>
       </c>
@@ -6694,7 +6709,7 @@
       </c>
       <c r="E359"/>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>355</v>
       </c>
@@ -6707,7 +6722,7 @@
       </c>
       <c r="E360"/>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>356</v>
       </c>
@@ -6720,7 +6735,7 @@
       </c>
       <c r="E361"/>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>357</v>
       </c>
@@ -6733,7 +6748,7 @@
       </c>
       <c r="E362"/>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>358</v>
       </c>
@@ -6746,7 +6761,7 @@
       </c>
       <c r="E363"/>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>359</v>
       </c>
@@ -6759,7 +6774,7 @@
       </c>
       <c r="E364"/>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>360</v>
       </c>
@@ -6772,7 +6787,7 @@
       </c>
       <c r="E365"/>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>361</v>
       </c>
@@ -6785,7 +6800,7 @@
       </c>
       <c r="E366"/>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>362</v>
       </c>
@@ -6798,7 +6813,7 @@
       </c>
       <c r="E367"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>363</v>
       </c>
@@ -6811,7 +6826,7 @@
       </c>
       <c r="E368"/>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>364</v>
       </c>
@@ -6824,7 +6839,7 @@
       </c>
       <c r="E369"/>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>365</v>
       </c>
@@ -6837,7 +6852,7 @@
       </c>
       <c r="E370"/>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>366</v>
       </c>
@@ -6850,7 +6865,7 @@
       </c>
       <c r="E371"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>367</v>
       </c>
@@ -6863,7 +6878,7 @@
       </c>
       <c r="E372"/>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>368</v>
       </c>
@@ -6876,7 +6891,7 @@
       </c>
       <c r="E373"/>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>369</v>
       </c>
@@ -6889,7 +6904,7 @@
       </c>
       <c r="E374"/>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>370</v>
       </c>
@@ -6902,7 +6917,7 @@
       </c>
       <c r="E375"/>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>371</v>
       </c>
@@ -6915,7 +6930,7 @@
       </c>
       <c r="E376"/>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>372</v>
       </c>
@@ -6928,7 +6943,7 @@
       </c>
       <c r="E377"/>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>373</v>
       </c>
@@ -6941,7 +6956,7 @@
       </c>
       <c r="E378"/>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>374</v>
       </c>
@@ -6954,7 +6969,7 @@
       </c>
       <c r="E379"/>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>375</v>
       </c>
@@ -6967,7 +6982,7 @@
       </c>
       <c r="E380"/>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>376</v>
       </c>
@@ -6980,7 +6995,7 @@
       </c>
       <c r="E381"/>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>377</v>
       </c>
@@ -6993,7 +7008,7 @@
       </c>
       <c r="E382"/>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>378</v>
       </c>
@@ -7006,7 +7021,7 @@
       </c>
       <c r="E383"/>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>379</v>
       </c>
@@ -7019,7 +7034,7 @@
       </c>
       <c r="E384"/>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>380</v>
       </c>
@@ -7032,7 +7047,7 @@
       </c>
       <c r="E385"/>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>381</v>
       </c>
@@ -7045,7 +7060,7 @@
       </c>
       <c r="E386"/>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>382</v>
       </c>
@@ -7058,7 +7073,7 @@
       </c>
       <c r="E387"/>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>383</v>
       </c>
@@ -7071,7 +7086,7 @@
       </c>
       <c r="E388"/>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>384</v>
       </c>
@@ -7084,7 +7099,7 @@
       </c>
       <c r="E389"/>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>385</v>
       </c>
@@ -7097,7 +7112,7 @@
       </c>
       <c r="E390"/>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>386</v>
       </c>
@@ -7110,7 +7125,7 @@
       </c>
       <c r="E391"/>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>387</v>
       </c>
@@ -7123,7 +7138,7 @@
       </c>
       <c r="E392"/>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>388</v>
       </c>
@@ -7136,7 +7151,7 @@
       </c>
       <c r="E393"/>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>389</v>
       </c>
@@ -7149,7 +7164,7 @@
       </c>
       <c r="E394"/>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>390</v>
       </c>
@@ -7162,7 +7177,7 @@
       </c>
       <c r="E395"/>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>391</v>
       </c>
@@ -7175,7 +7190,7 @@
       </c>
       <c r="E396"/>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>392</v>
       </c>
@@ -7188,7 +7203,7 @@
       </c>
       <c r="E397"/>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>393</v>
       </c>
@@ -7201,7 +7216,7 @@
       </c>
       <c r="E398"/>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>394</v>
       </c>
@@ -7214,7 +7229,7 @@
       </c>
       <c r="E399"/>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>395</v>
       </c>
@@ -7227,7 +7242,7 @@
       </c>
       <c r="E400"/>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>396</v>
       </c>
@@ -7240,7 +7255,7 @@
       </c>
       <c r="E401"/>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>397</v>
       </c>
@@ -7253,7 +7268,7 @@
       </c>
       <c r="E402"/>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>398</v>
       </c>
@@ -7266,7 +7281,7 @@
       </c>
       <c r="E403"/>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>399</v>
       </c>
@@ -7279,7 +7294,7 @@
       </c>
       <c r="E404"/>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>400</v>
       </c>
@@ -7292,7 +7307,7 @@
       </c>
       <c r="E405"/>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>401</v>
       </c>
@@ -7305,7 +7320,7 @@
       </c>
       <c r="E406"/>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>402</v>
       </c>
@@ -7318,7 +7333,7 @@
       </c>
       <c r="E407"/>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>403</v>
       </c>
@@ -7331,7 +7346,7 @@
       </c>
       <c r="E408"/>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>404</v>
       </c>
@@ -7344,7 +7359,7 @@
       </c>
       <c r="E409"/>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>405</v>
       </c>
@@ -7357,7 +7372,7 @@
       </c>
       <c r="E410"/>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>406</v>
       </c>
@@ -7370,7 +7385,7 @@
       </c>
       <c r="E411"/>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>407</v>
       </c>
@@ -7383,7 +7398,7 @@
       </c>
       <c r="E412"/>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>408</v>
       </c>
@@ -7396,7 +7411,7 @@
       </c>
       <c r="E413"/>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>409</v>
       </c>
@@ -7409,7 +7424,7 @@
       </c>
       <c r="E414"/>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>410</v>
       </c>
@@ -7422,7 +7437,7 @@
       </c>
       <c r="E415"/>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>411</v>
       </c>
@@ -7435,7 +7450,7 @@
       </c>
       <c r="E416"/>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>412</v>
       </c>
@@ -7448,7 +7463,7 @@
       </c>
       <c r="E417"/>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>413</v>
       </c>
@@ -7461,7 +7476,7 @@
       </c>
       <c r="E418"/>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>414</v>
       </c>
@@ -7474,7 +7489,7 @@
       </c>
       <c r="E419"/>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>415</v>
       </c>
@@ -7487,7 +7502,7 @@
       </c>
       <c r="E420"/>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>416</v>
       </c>
@@ -7500,7 +7515,7 @@
       </c>
       <c r="E421"/>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>417</v>
       </c>
@@ -7513,7 +7528,7 @@
       </c>
       <c r="E422"/>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>418</v>
       </c>
@@ -7526,7 +7541,7 @@
       </c>
       <c r="E423"/>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>419</v>
       </c>
@@ -7539,7 +7554,7 @@
       </c>
       <c r="E424"/>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>420</v>
       </c>
@@ -7552,7 +7567,7 @@
       </c>
       <c r="E425"/>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>421</v>
       </c>
@@ -7565,7 +7580,7 @@
       </c>
       <c r="E426"/>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>422</v>
       </c>
@@ -7578,7 +7593,7 @@
       </c>
       <c r="E427"/>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>423</v>
       </c>
@@ -7591,7 +7606,7 @@
       </c>
       <c r="E428"/>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>424</v>
       </c>
@@ -7604,7 +7619,7 @@
       </c>
       <c r="E429"/>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>425</v>
       </c>
@@ -7617,7 +7632,7 @@
       </c>
       <c r="E430"/>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>426</v>
       </c>
@@ -7630,7 +7645,7 @@
       </c>
       <c r="E431"/>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>427</v>
       </c>
@@ -7643,7 +7658,7 @@
       </c>
       <c r="E432"/>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>428</v>
       </c>
@@ -7656,7 +7671,7 @@
       </c>
       <c r="E433"/>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>429</v>
       </c>
@@ -7669,7 +7684,7 @@
       </c>
       <c r="E434"/>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>430</v>
       </c>
@@ -7682,7 +7697,7 @@
       </c>
       <c r="E435"/>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>431</v>
       </c>
@@ -7695,7 +7710,7 @@
       </c>
       <c r="E436"/>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>432</v>
       </c>
@@ -7708,7 +7723,7 @@
       </c>
       <c r="E437"/>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>433</v>
       </c>
@@ -7721,7 +7736,7 @@
       </c>
       <c r="E438"/>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>434</v>
       </c>
@@ -7734,7 +7749,7 @@
       </c>
       <c r="E439"/>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>435</v>
       </c>
@@ -7747,7 +7762,7 @@
       </c>
       <c r="E440"/>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>436</v>
       </c>
@@ -7760,7 +7775,7 @@
       </c>
       <c r="E441"/>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>437</v>
       </c>
@@ -7773,7 +7788,7 @@
       </c>
       <c r="E442"/>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>438</v>
       </c>
@@ -7786,7 +7801,7 @@
       </c>
       <c r="E443"/>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>439</v>
       </c>
@@ -7799,7 +7814,7 @@
       </c>
       <c r="E444"/>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>440</v>
       </c>
@@ -7812,7 +7827,7 @@
       </c>
       <c r="E445"/>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>441</v>
       </c>
@@ -7825,7 +7840,7 @@
       </c>
       <c r="E446"/>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>442</v>
       </c>
@@ -7838,7 +7853,7 @@
       </c>
       <c r="E447"/>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>443</v>
       </c>
@@ -7851,7 +7866,7 @@
       </c>
       <c r="E448"/>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>444</v>
       </c>
@@ -7864,7 +7879,7 @@
       </c>
       <c r="E449"/>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>445</v>
       </c>
@@ -7877,7 +7892,7 @@
       </c>
       <c r="E450"/>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>446</v>
       </c>
@@ -7890,7 +7905,7 @@
       </c>
       <c r="E451"/>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>447</v>
       </c>
@@ -7903,7 +7918,7 @@
       </c>
       <c r="E452"/>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>448</v>
       </c>
@@ -7916,7 +7931,7 @@
       </c>
       <c r="E453"/>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>449</v>
       </c>
@@ -7929,7 +7944,7 @@
       </c>
       <c r="E454"/>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>450</v>
       </c>
@@ -7942,7 +7957,7 @@
       </c>
       <c r="E455"/>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>451</v>
       </c>
@@ -7955,7 +7970,7 @@
       </c>
       <c r="E456"/>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>452</v>
       </c>
@@ -7968,7 +7983,7 @@
       </c>
       <c r="E457"/>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>453</v>
       </c>
@@ -7981,7 +7996,7 @@
       </c>
       <c r="E458"/>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>454</v>
       </c>
@@ -7994,7 +8009,7 @@
       </c>
       <c r="E459"/>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>455</v>
       </c>
@@ -8007,7 +8022,7 @@
       </c>
       <c r="E460"/>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>456</v>
       </c>
@@ -8020,7 +8035,7 @@
       </c>
       <c r="E461"/>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>457</v>
       </c>
@@ -8033,7 +8048,7 @@
       </c>
       <c r="E462"/>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>458</v>
       </c>
@@ -8046,7 +8061,7 @@
       </c>
       <c r="E463"/>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>459</v>
       </c>
@@ -8059,7 +8074,7 @@
       </c>
       <c r="E464"/>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>460</v>
       </c>
@@ -8072,7 +8087,7 @@
       </c>
       <c r="E465"/>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>461</v>
       </c>
@@ -8085,7 +8100,7 @@
       </c>
       <c r="E466"/>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>462</v>
       </c>
@@ -8098,7 +8113,7 @@
       </c>
       <c r="E467"/>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>463</v>
       </c>
@@ -8111,7 +8126,7 @@
       </c>
       <c r="E468"/>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>464</v>
       </c>
@@ -8124,7 +8139,7 @@
       </c>
       <c r="E469"/>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>465</v>
       </c>
@@ -8137,7 +8152,7 @@
       </c>
       <c r="E470"/>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>466</v>
       </c>
@@ -8150,7 +8165,7 @@
       </c>
       <c r="E471"/>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>467</v>
       </c>
@@ -8163,7 +8178,7 @@
       </c>
       <c r="E472"/>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>468</v>
       </c>
@@ -8176,7 +8191,7 @@
       </c>
       <c r="E473"/>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>469</v>
       </c>
@@ -8189,7 +8204,7 @@
       </c>
       <c r="E474"/>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>470</v>
       </c>
@@ -8202,7 +8217,7 @@
       </c>
       <c r="E475"/>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>471</v>
       </c>
@@ -8215,7 +8230,7 @@
       </c>
       <c r="E476"/>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>472</v>
       </c>
@@ -8228,7 +8243,7 @@
       </c>
       <c r="E477"/>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>473</v>
       </c>
@@ -8241,7 +8256,7 @@
       </c>
       <c r="E478"/>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>474</v>
       </c>
@@ -8254,7 +8269,7 @@
       </c>
       <c r="E479"/>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>475</v>
       </c>
@@ -8267,7 +8282,7 @@
       </c>
       <c r="E480"/>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>476</v>
       </c>
@@ -8280,7 +8295,7 @@
       </c>
       <c r="E481"/>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>477</v>
       </c>
@@ -8293,7 +8308,7 @@
       </c>
       <c r="E482"/>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>478</v>
       </c>
@@ -8306,7 +8321,7 @@
       </c>
       <c r="E483"/>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>479</v>
       </c>
@@ -8319,7 +8334,7 @@
       </c>
       <c r="E484"/>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>480</v>
       </c>
@@ -8332,7 +8347,7 @@
       </c>
       <c r="E485"/>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>481</v>
       </c>
@@ -8345,7 +8360,7 @@
       </c>
       <c r="E486"/>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>482</v>
       </c>
@@ -8358,7 +8373,7 @@
       </c>
       <c r="E487"/>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>483</v>
       </c>
@@ -8371,7 +8386,7 @@
       </c>
       <c r="E488"/>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>484</v>
       </c>
@@ -8384,7 +8399,7 @@
       </c>
       <c r="E489"/>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>485</v>
       </c>
@@ -8397,7 +8412,7 @@
       </c>
       <c r="E490"/>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>486</v>
       </c>
@@ -8410,7 +8425,7 @@
       </c>
       <c r="E491"/>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>487</v>
       </c>
@@ -8423,7 +8438,7 @@
       </c>
       <c r="E492"/>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>488</v>
       </c>
@@ -8436,7 +8451,7 @@
       </c>
       <c r="E493"/>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>489</v>
       </c>
@@ -8449,7 +8464,7 @@
       </c>
       <c r="E494"/>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>490</v>
       </c>
@@ -8462,7 +8477,7 @@
       </c>
       <c r="E495"/>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>491</v>
       </c>
@@ -8475,7 +8490,7 @@
       </c>
       <c r="E496"/>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>492</v>
       </c>
@@ -8488,7 +8503,7 @@
       </c>
       <c r="E497"/>
     </row>
-    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>493</v>
       </c>
@@ -8501,7 +8516,7 @@
       </c>
       <c r="E498"/>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>494</v>
       </c>
@@ -8514,7 +8529,7 @@
       </c>
       <c r="E499"/>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>495</v>
       </c>
@@ -8527,7 +8542,7 @@
       </c>
       <c r="E500"/>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>496</v>
       </c>
